--- a/plots/maps/geo_stats/museumsall_in_region_by_size.xlsx
+++ b/plots/maps/geo_stats/museumsall_in_region_by_size.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
